--- a/reporte_solicitudes.xlsx
+++ b/reporte_solicitudes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -44,52 +44,109 @@
     <t>Fecha de Creación</t>
   </si>
   <si>
-    <t>Jose</t>
-  </si>
-  <si>
-    <t>213123424</t>
-  </si>
-  <si>
-    <t>josandres123@mail.com</t>
-  </si>
-  <si>
-    <t>3103553521</t>
-  </si>
-  <si>
-    <t>Esto es una prueba</t>
+    <t>dfsd</t>
+  </si>
+  <si>
+    <t>fasf</t>
+  </si>
+  <si>
+    <t>sfsa</t>
+  </si>
+  <si>
+    <t>sfas</t>
   </si>
   <si>
     <t>Abierto</t>
   </si>
   <si>
-    <t>2024-12-13T00:23:31.248984</t>
-  </si>
-  <si>
-    <t>2024-12-13T00:23:32.281800</t>
-  </si>
-  <si>
-    <t>2024-12-13T00:23:33.037229</t>
-  </si>
-  <si>
-    <t>2024-12-13T00:23:33.651752</t>
-  </si>
-  <si>
-    <t>2024-12-13T00:23:34.254262</t>
-  </si>
-  <si>
-    <t>2024-12-13T00:23:34.811220</t>
-  </si>
-  <si>
-    <t>2024-12-13T00:23:35.301714</t>
-  </si>
-  <si>
-    <t>2024-12-13T00:23:35.839567</t>
-  </si>
-  <si>
-    <t>2024-12-13T00:23:36.442242</t>
-  </si>
-  <si>
-    <t>2024-12-13T00:23:37.068284</t>
+    <t>2024-12-13T01:39:17.572442</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:19.403497</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:19.656753</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:19.853676</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:20.063952</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:20.260066</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:20.452856</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:20.627802</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:20.986860</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:21.164265</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:21.363294</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:21.540397</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:21.710067</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:21.874466</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:22.061219</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:22.220262</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:22.378480</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:22.535907</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:22.732696</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:22.905570</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:23.088848</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:23.248151</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:23.405433</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:23.575880</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:23.744591</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:23.908361</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:24.079372</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:24.264484</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:24.446673</t>
+  </si>
+  <si>
+    <t>2024-12-13T01:39:24.760290</t>
   </si>
 </sst>
 </file>
@@ -134,7 +191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -174,7 +231,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>10</v>
@@ -186,27 +243,27 @@
         <v>12</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>200000.0</v>
+        <v>1.0</v>
       </c>
       <c r="H2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J2" t="s" s="0">
         <v>15</v>
-      </c>
-      <c r="I2" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>10</v>
@@ -218,27 +275,27 @@
         <v>12</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>200000.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>10</v>
@@ -250,27 +307,27 @@
         <v>12</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>200000.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>10</v>
@@ -282,27 +339,27 @@
         <v>12</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>200000.0</v>
+        <v>1.0</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>10</v>
@@ -314,27 +371,27 @@
         <v>12</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>200000.0</v>
+        <v>1.0</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>10</v>
@@ -346,27 +403,27 @@
         <v>12</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>200000.0</v>
+        <v>1.0</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>10</v>
@@ -378,27 +435,27 @@
         <v>12</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>200000.0</v>
+        <v>1.0</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>10</v>
@@ -410,27 +467,27 @@
         <v>12</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>200000.0</v>
+        <v>1.0</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>10</v>
@@ -442,54 +499,694 @@
         <v>12</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>200000.0</v>
+        <v>1.0</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
         <v>11.0</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="G11" t="n" s="0">
-        <v>200000.0</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I11" t="n" s="0">
+      <c r="B12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G21" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I21" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G22" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I22" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G23" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I23" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="0">
         <v>23.0</v>
       </c>
-      <c r="J11" t="s" s="0">
-        <v>25</v>
+      <c r="B24" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G24" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I24" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G25" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I25" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G26" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I26" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G27" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I27" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G28" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I28" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G29" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I29" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G30" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I30" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G31" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I31" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
